--- a/testdata/Excel.xlsx
+++ b/testdata/Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -36,13 +36,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employeeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adminRoleID</t>
+    <t xml:space="preserve">EmployeeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -51,28 +48,28 @@
     <t xml:space="preserve">Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">john2022</t>
+    <t xml:space="preserve">jhn202223</t>
   </si>
   <si>
     <t xml:space="preserve">Secret@123</t>
   </si>
   <si>
+    <t xml:space="preserve">jj123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Texas R&amp;D</t>
   </si>
   <si>
-    <t xml:space="preserve">Global Admin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mary</t>
   </si>
   <si>
     <t xml:space="preserve">Ann</t>
   </si>
   <si>
-    <t xml:space="preserve">mary2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Location</t>
+    <t xml:space="preserve">mry202223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js123</t>
   </si>
   <si>
     <t xml:space="preserve">David</t>
@@ -81,10 +78,10 @@
     <t xml:space="preserve">Brown</t>
   </si>
   <si>
-    <t xml:space="preserve">david2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffiled Office</t>
+    <t xml:space="preserve">dvd202223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db123</t>
   </si>
 </sst>
 </file>
@@ -193,18 +190,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="19.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="10.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,77 +226,65 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>9999</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -317,7 +305,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -340,7 +328,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
